--- a/conception_appli/docs/Paths_dans_Application.xlsx
+++ b/conception_appli/docs/Paths_dans_Application.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\generation_code\conception_appli\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>pathWorkspace</t>
   </si>
@@ -38,9 +38,6 @@
     <t>ArtifactId</t>
   </si>
   <si>
-    <t>generation_code_test</t>
-  </si>
-  <si>
     <t>D:/Donnees/eclipse/eclipseworkspace_neon</t>
   </si>
   <si>
@@ -81,13 +78,28 @@
   </si>
   <si>
     <t>pathRelMainJava</t>
+  </si>
+  <si>
+    <t>pathRelGroupId</t>
+  </si>
+  <si>
+    <t>pathGroupIdMainJava</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>levy/daniel/application</t>
+  </si>
+  <si>
+    <t>projet_users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,36 @@
       <color rgb="FF002060"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -169,6 +211,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,138 +517,155 @@
     <col min="2" max="2" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="104.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="107" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="9" t="str">
         <f>T(C2) &amp; "/" &amp;  T(B3)</f>
         <v>pathWorkspace/nomProjet</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="9" t="str">
         <f>T(E2) &amp; "/" &amp; T(B3)</f>
         <v>pathWorkspace/nomProjet</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>T(G2) &amp; "/" &amp; T(F3)</f>
-        <v>D:/Donnees/eclipse/eclipseworkspace_neon/generation_code_test</v>
+        <v>D:/Donnees/eclipse/eclipseworkspace_neon/projet_users</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D6" si="0">T(C3) &amp; "/" &amp;  T(B4)</f>
         <v>pathProject/nomRepertoireSrc</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="9" t="str">
         <f t="shared" ref="E4:E6" si="1">T(E3) &amp; "/" &amp; T(B4)</f>
         <v>pathWorkspace/nomProjet/nomRepertoireSrc</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>T(G3) &amp; "/" &amp; T(F4)</f>
-        <v>D:/Donnees/eclipse/eclipseworkspace_neon/generation_code_test/src</v>
+        <v>D:/Donnees/eclipse/eclipseworkspace_neon/projet_users/src</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pathRepertoireSrc/pathRelMainJava</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>pathWorkspace/nomProjet/nomRepertoireSrc/pathRelMainJava</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>T(G4) &amp; "/" &amp; T(F5)</f>
-        <v>D:/Donnees/eclipse/eclipseworkspace_neon/generation_code_test/src/main/java</v>
+        <v>D:/Donnees/eclipse/eclipseworkspace_neon/projet_users/src/main/java</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="str">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>pathMainJava/</v>
-      </c>
-      <c r="E6" s="1" t="str">
+        <v>pathMainJava/pathRelGroupId</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>pathWorkspace/nomProjet/nomRepertoireSrc/pathRelMainJava/</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
+        <v>pathWorkspace/nomProjet/nomRepertoireSrc/pathRelMainJava/pathRelGroupId</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>T(G5) &amp; "/" &amp; T(F6)</f>
+        <v>D:/Donnees/eclipse/eclipseworkspace_neon/projet_users/src/main/java/levy/daniel/application</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="6"/>
